--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joonho Hyun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27206171-7596-4851-9870-ACC05711FB51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0DE829-E1C2-4022-AD32-3910F0F699D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -291,6 +291,83 @@
     <t>2팀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 25일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Application Use Case Diagram 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Target Application 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, Use Case Diagram Outline 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 29일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Outline 구체화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +377,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -359,6 +436,18 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -837,7 +926,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -900,28 +989,64 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>120</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>120</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>120</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0DE829-E1C2-4022-AD32-3910F0F699D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8010DAD-0F4F-4E85-960E-0282E190FF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -293,55 +293,6 @@
   </si>
   <si>
     <r>
-      <t>9월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 25일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 27일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target Application Use Case Diagram 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Target Application 기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, Use Case Diagram Outline 작성</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>9</t>
     </r>
     <r>
@@ -366,6 +317,55 @@
   </si>
   <si>
     <t>Use Case Outline 구체화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백 반영 및 Specification 가이드 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 7일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Specification 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +926,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,73 +988,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C6" s="3">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>120</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>14</v>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.75</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="E8" s="17">
+        <v>150</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
@@ -1065,12 +1065,12 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -1110,7 +1110,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="9"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
@@ -1126,15 +1126,15 @@
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
@@ -1150,7 +1150,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="9"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
@@ -1253,41 +1253,27 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="4"/>
-    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8010DAD-0F4F-4E85-960E-0282E190FF3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0238316-9E12-4E07-BA56-E230AEE96B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -368,6 +368,101 @@
     <t>Use Case Specification 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 12일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 13일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mobile Web GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설계, 아트보드 연결</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mobile Web GUI Reference </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 기초 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Adobe XD)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +472,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -449,6 +544,12 @@
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -926,7 +1027,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1048,21 +1149,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>120</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0238316-9E12-4E07-BA56-E230AEE96B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE960F52-213C-4B18-BB22-58E6AEA41CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -460,6 +460,119 @@
         <charset val="129"/>
       </rPr>
       <t>Adobe XD)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 16일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 23일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 19일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mobile Web GUI 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB E-R Modeling 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB E-R Modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Initial Data 수집</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1027,7 +1140,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1190,28 +1303,64 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="4"/>
+      <c r="A11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>90</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE960F52-213C-4B18-BB22-58E6AEA41CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76CD92F-17E9-4748-9F03-5483C34F5F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -573,6 +573,64 @@
         <family val="2"/>
       </rPr>
       <t>, Initial Data 수집</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 1일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding Guideline 검토</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB E-R Modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1362,21 +1420,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="4"/>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>60</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>

--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76CD92F-17E9-4748-9F03-5483C34F5F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697E340-6FFC-48F0-BCF5-8CE489375C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -292,346 +292,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 29일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Use Case Outline 구체화</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 1일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피드백 반영 및 Specification 가이드 작성</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 7일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Use Case Specification 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 12일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 13일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mobile Web GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 설계, 아트보드 연결</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mobile Web GUI Reference </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탐색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 기초 설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>Adobe XD)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 16일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 23일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 19일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Mobile Web GUI 설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DB E-R Modeling 설계</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">DB E-R Modeling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Initial Data 수집</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 1일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 3일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Coding Guideline 검토</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">DB E-R Modeling </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수정</t>
-    </r>
+    <t>Initial Data Set 추가 수집 및 취합</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 29일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 1일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Outline 피드백 반영 및 Specification 가이드 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 7일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 12일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Web GUI Reference 탐색, 기초 설계(Adobe XD)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 13일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Web GUI 세부 설계, 아트보드 연결</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 16일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile Web GUI 설계 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 19일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 23일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB E-R Modeling 설계 수정, Initial Data 수집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 1일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB E-R Modeling 설계 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 3일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 11일</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +388,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -705,24 +450,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -764,7 +491,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -774,8 +501,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,32 +510,42 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1198,41 +933,41 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="53.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1240,392 +975,404 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>120</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17">
         <v>0.75</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>60</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="18">
+        <v>60</v>
+      </c>
+      <c r="E8" s="20">
+        <v>150</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>60</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>120</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.8125</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>90</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C14" s="17">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
-        <v>120</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="E14" s="20">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E15" s="20">
         <v>60</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20">
+        <v>60</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="9">
-        <v>60</v>
-      </c>
-      <c r="E8" s="17">
-        <v>150</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>120</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>60</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>90</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>60</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>60</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -8,34 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697E340-6FFC-48F0-BCF5-8CE489375C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB9465-9973-4D89-8988-A06814B56AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="작성자명" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="현준호" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -239,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -292,91 +279,1125 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Use Case Outline 구체화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Case Specification 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB E-R Modeling 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding Guideline 검토</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Data Set 추가 수집 및 취합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월 29일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 1일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Case Outline 피드백 반영 및 Specification 가이드 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 7일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 12일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Web GUI Reference 탐색, 기초 설계(Adobe XD)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 13일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Web GUI 세부 설계, 아트보드 연결</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 16일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile Web GUI 설계 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 19일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10월 23일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB E-R Modeling 설계 수정, Initial Data 수집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 1일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB E-R Modeling 설계 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 3일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11월 11일</t>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체화</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가이드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mobile Web GUI Reference </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Adobe XD)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mobile Web GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아트보드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mobile Web GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB E-R Modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB E-R Modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Initial Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB E-R Modeling </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Coding Guideline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GUI Key color </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">수정, flow connection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>월 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB E-R Modeling 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>요람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 데이터 수집</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web Page CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mobile Web GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 데이터 추가 수집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 데이터 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mobile Web GUI 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +1409,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -450,6 +1471,18 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -491,7 +1524,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -520,32 +1553,34 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -932,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -958,16 +1993,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -976,308 +2011,404 @@
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>120</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>60</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="16">
+        <v>60</v>
+      </c>
+      <c r="E8" s="19">
+        <v>150</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17">
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <v>60</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>120</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="15">
         <v>0.75</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C11" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>60</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>60</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>90</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C14" s="15">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D14" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E14" s="19">
+        <v>60</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>60</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>60</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>180</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>60</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>150</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>60</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>210</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
         <v>120</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="F22" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D23" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="20">
-        <v>60</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="17">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="18">
-        <v>60</v>
-      </c>
-      <c r="E8" s="20">
-        <v>150</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="22">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.625</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
-        <v>60</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="E23" s="19">
+        <v>120</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="15">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C10" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <v>120</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>60</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="C12" s="17">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>60</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.8125</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>90</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="17">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="17">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0.875</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <v>60</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <v>60</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D24" s="16">
+        <v>200</v>
+      </c>
+      <c r="E24" s="19">
+        <v>520</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
@@ -1386,259 +2517,4 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB9465-9973-4D89-8988-A06814B56AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765EE00-9EDF-4AA6-BA60-FAB95163E48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1332,7 +1332,124 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Web Page CSS </t>
+      <t xml:space="preserve">Mobile Web GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 데이터 추가 수집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 데이터 정리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mobile Web GUI 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 3일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개설과목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> DB Data 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 4일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개인정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Page CSS </t>
     </r>
     <r>
       <rPr>
@@ -1347,56 +1464,39 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mobile Web GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요람 데이터 추가 수집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요람 데이터 정리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Mobile Web GUI 설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수정</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이수과목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 입력, 조건 입력 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Page CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1967,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2307,7 +2407,7 @@
         <v>150</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2327,7 +2427,7 @@
         <v>60</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,7 +2447,7 @@
         <v>210</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2367,7 +2467,7 @@
         <v>120</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -2407,24 +2507,48 @@
         <v>520</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>120</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>120</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>

--- a/PSP_Sheets/PSP_Sheet_현준호.xlsx
+++ b/PSP_Sheets/PSP_Sheet_현준호.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인작업\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1937A99-0C85-41EE-97B4-074D0B982F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4115A624-92F3-4BCE-9585-C1D72FDC33C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -456,6 +456,26 @@
   </si>
   <si>
     <t>footer, header CSS 작업, page connect backend 작업, GUI model 일부 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 9일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 10일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>index, show, update page jquery 작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer, header jquery 작업, GUI Model 최종본 작성, 최종발표보고서 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위키 작성, table page css/jquery, 최종산출물 보완 작업</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1002,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1546,28 +1566,64 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>240</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <v>300</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="15">
+        <v>360</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
